--- a/17.12.21_MTS_PC3/names.xlsx
+++ b/17.12.21_MTS_PC3/names.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
-  <si>
-    <t>OA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>null</t>
   </si>
@@ -31,6 +28,12 @@
   </si>
   <si>
     <t>DMSO</t>
+  </si>
+  <si>
+    <t>MMP62</t>
+  </si>
+  <si>
+    <t>MMAE</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -352,74 +355,74 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
